--- a/biology/Zoologie/Diptychophora/Diptychophora.xlsx
+++ b/biology/Zoologie/Diptychophora/Diptychophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diptychophora est un genre d'insectes lépidoptères (papillons) nocturnes de la famille des Crambidae essentiellement présents dans les Amériques.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tribu des Diptychophorini contient la plupart des plus petites et des plus colorées espèces de la famille des Crambidae. Aucune synapomorphie n'a été proposée pour circonscrire proprement la définition du genre. La morphologie des valves des genitalia mâles ont une forme assez typique dans le genre, mais certaines espèces qui y sont placées, comme Diptychophora powelli ou Diptychophora lojanalis, ne la présentent pas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu des Diptychophorini contient la plupart des plus petites et des plus colorées espèces de la famille des Crambidae. Aucune synapomorphie n'a été proposée pour circonscrire proprement la définition du genre. La morphologie des valves des genitalia mâles ont une forme assez typique dans le genre, mais certaines espèces qui y sont placées, comme Diptychophora powelli ou Diptychophora lojanalis, ne la présentent pas.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des espèces de ce genre sont trouvées dans les Amériques, mais certaines espèces sont décrites d'Océanie (Australie, Samoa), d'Afrique (Sierra Leone, Seychelles) ou d'Asie (Mandchourie, Inde)[2]. Les taxons de l'Ancien Monde pourraient cependant plutôt se rapporter au genre Glaucocharis[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces de ce genre sont trouvées dans les Amériques, mais certaines espèces sont décrites d'Océanie (Australie, Samoa), d'Afrique (Sierra Leone, Seychelles) ou d'Asie (Mandchourie, Inde). Les taxons de l'Ancien Monde pourraient cependant plutôt se rapporter au genre Glaucocharis.
 </t>
         </is>
       </c>
@@ -575,11 +591,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description originale
-Le genre Diptychophora est décrit en 1866 par l'entomologiste wurtembergeois Philipp Christoph Zeller. L'espèce type est Diptychophora kuhlweinii[3]. Le nom du genre vient du grec ancien et signifie « qui porte deux plis », possiblement en référence aux deux resserrements présents sur le termen de l'aile antérieure, près de l'apex, un caractère donné comme diagnostique dans la description originale du genre[3].
-Différents petits crambinés du monde entier — à l'exception du nord de l'Holarctique — sont par la suite placés dans ce genre, jusqu'à ce que Stanisław Błeszyński redéfinisse le genre en 1965 comme restreint aux Néotropiques et au sud du Néarctique, plaçant par défaut les espèces de l'Ancien Monde dans le genre Pareromene[4].
-Liste des espèces
-Selon GlobIZ                         (5 octobre 2021)[2] :
+          <t>Description originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Diptychophora est décrit en 1866 par l'entomologiste wurtembergeois Philipp Christoph Zeller. L'espèce type est Diptychophora kuhlweinii. Le nom du genre vient du grec ancien et signifie « qui porte deux plis », possiblement en référence aux deux resserrements présents sur le termen de l'aile antérieure, près de l'apex, un caractère donné comme diagnostique dans la description originale du genre.
+Différents petits crambinés du monde entier — à l'exception du nord de l'Holarctique — sont par la suite placés dans ce genre, jusqu'à ce que Stanisław Błeszyński redéfinisse le genre en 1965 comme restreint aux Néotropiques et au sud du Néarctique, plaçant par défaut les espèces de l'Ancien Monde dans le genre Pareromene.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diptychophora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diptychophora</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GlobIZ                         (5 octobre 2021) :
 Diptychophora ardalia Landry &amp; Becker, 2021
 Diptychophora calliptera Tams, 1935
 Diptychophora desmoteria Meyrick, 1931
@@ -598,7 +654,7 @@
 Diptychophora powelli Landry, 1990
 Diptychophora strigatalis Hampson, 1900
 Diptychophora subazanalis Bleszynski, 1967
-GBIF       (5 octobre 2021)[5] liste dans ce genre des espèces placées dans le genre Glaucocharis selon GlobIZ : 
+GBIF       (5 octobre 2021) liste dans ce genre des espèces placées dans le genre Glaucocharis selon GlobIZ : 
 Diptychophora astrosema Meyrick, 1882
 Diptychophora chrysochyta Meyrick, 1882
 Diptychophora elaina Meyrick, 1882
